--- a/data/pca/factorExposure/factorExposure_2015-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02117345864725058</v>
+        <v>0.01164902188145881</v>
       </c>
       <c r="C2">
-        <v>0.02140074547548454</v>
+        <v>-0.05095011264981102</v>
       </c>
       <c r="D2">
-        <v>0.102508587521221</v>
+        <v>0.1262775605756908</v>
       </c>
       <c r="E2">
-        <v>-0.01690786206917553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02120294925637634</v>
+      </c>
+      <c r="F2">
+        <v>0.03145459880180008</v>
+      </c>
+      <c r="G2">
+        <v>-0.1077788345023594</v>
+      </c>
+      <c r="H2">
+        <v>0.09251231030484838</v>
+      </c>
+      <c r="I2">
+        <v>-0.1238828496219879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04258780407724607</v>
+        <v>0.01542836478419498</v>
       </c>
       <c r="C4">
-        <v>0.07023402317205585</v>
+        <v>-0.1065928734979352</v>
       </c>
       <c r="D4">
-        <v>0.1085495037126552</v>
+        <v>0.1301811658616668</v>
       </c>
       <c r="E4">
-        <v>-0.09222047968969364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01473699264966846</v>
+      </c>
+      <c r="F4">
+        <v>0.09539966463860634</v>
+      </c>
+      <c r="G4">
+        <v>-0.006387369713331583</v>
+      </c>
+      <c r="H4">
+        <v>0.04875380741844688</v>
+      </c>
+      <c r="I4">
+        <v>0.08637265608489486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02507972912301924</v>
+        <v>0.02822050912824446</v>
       </c>
       <c r="C6">
-        <v>0.01252184597964468</v>
+        <v>-0.03774405948425159</v>
       </c>
       <c r="D6">
-        <v>0.1317316757744668</v>
+        <v>0.1219600275162306</v>
       </c>
       <c r="E6">
-        <v>-0.05902215965900251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.060605271776258</v>
+      </c>
+      <c r="F6">
+        <v>0.0474914511610187</v>
+      </c>
+      <c r="G6">
+        <v>0.01088510537142461</v>
+      </c>
+      <c r="H6">
+        <v>0.04548954832744229</v>
+      </c>
+      <c r="I6">
+        <v>0.03173920022732672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001256002171690256</v>
+        <v>0.008311529568620685</v>
       </c>
       <c r="C7">
-        <v>0.02184969085160222</v>
+        <v>-0.03754608135413683</v>
       </c>
       <c r="D7">
-        <v>0.1095010495691973</v>
+        <v>0.09572512300775803</v>
       </c>
       <c r="E7">
-        <v>-0.01590093344865705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05484301998963868</v>
+      </c>
+      <c r="F7">
+        <v>0.009793010008187705</v>
+      </c>
+      <c r="G7">
+        <v>0.02238273285366425</v>
+      </c>
+      <c r="H7">
+        <v>0.07695418333083165</v>
+      </c>
+      <c r="I7">
+        <v>0.02046793111462374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.00175761164406566</v>
+        <v>-0.008545032947054377</v>
       </c>
       <c r="C8">
-        <v>0.02567745938042897</v>
+        <v>-0.03554853632033113</v>
       </c>
       <c r="D8">
-        <v>0.07598163340703704</v>
+        <v>0.07396105730379977</v>
       </c>
       <c r="E8">
-        <v>-0.03359824640844562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03798627961070435</v>
+      </c>
+      <c r="F8">
+        <v>0.05151319536069419</v>
+      </c>
+      <c r="G8">
+        <v>-0.0583329921857092</v>
+      </c>
+      <c r="H8">
+        <v>0.01728630720852222</v>
+      </c>
+      <c r="I8">
+        <v>0.02091773326195701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03490230838030248</v>
+        <v>0.01175778015783224</v>
       </c>
       <c r="C9">
-        <v>0.05988161676095714</v>
+        <v>-0.08789951942754444</v>
       </c>
       <c r="D9">
-        <v>0.1159570255010655</v>
+        <v>0.1126060320009945</v>
       </c>
       <c r="E9">
-        <v>-0.07777890816227818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01431487424656733</v>
+      </c>
+      <c r="F9">
+        <v>0.06298859722287596</v>
+      </c>
+      <c r="G9">
+        <v>0.02070405903002043</v>
+      </c>
+      <c r="H9">
+        <v>0.05970203591291395</v>
+      </c>
+      <c r="I9">
+        <v>0.04878092463403546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1759679852157603</v>
+        <v>0.2428359280144227</v>
       </c>
       <c r="C10">
-        <v>-0.169088274818628</v>
+        <v>0.08671556664473903</v>
       </c>
       <c r="D10">
-        <v>-0.005003643468240882</v>
+        <v>-0.00367947312826333</v>
       </c>
       <c r="E10">
-        <v>-0.04660861041234268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01147363860963329</v>
+      </c>
+      <c r="F10">
+        <v>0.04176702488499446</v>
+      </c>
+      <c r="G10">
+        <v>0.002612849020015037</v>
+      </c>
+      <c r="H10">
+        <v>-0.03239290374875229</v>
+      </c>
+      <c r="I10">
+        <v>-0.01819631136490785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01912589238054549</v>
+        <v>0.00955012441762056</v>
       </c>
       <c r="C11">
-        <v>0.04136190650388456</v>
+        <v>-0.05860385572523766</v>
       </c>
       <c r="D11">
-        <v>0.04506183423417046</v>
+        <v>0.04052769045776373</v>
       </c>
       <c r="E11">
-        <v>0.01495869694910402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0203123028664486</v>
+      </c>
+      <c r="F11">
+        <v>-0.01328354805386576</v>
+      </c>
+      <c r="G11">
+        <v>0.01715701205224957</v>
+      </c>
+      <c r="H11">
+        <v>0.05025464615103246</v>
+      </c>
+      <c r="I11">
+        <v>0.05276300652037068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01857310287405462</v>
+        <v>0.00943334242609112</v>
       </c>
       <c r="C12">
-        <v>0.04100402388729999</v>
+        <v>-0.0503627854939021</v>
       </c>
       <c r="D12">
-        <v>0.05707640280825502</v>
+        <v>0.04441576112905612</v>
       </c>
       <c r="E12">
-        <v>0.003800314947529428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01482274939218622</v>
+      </c>
+      <c r="F12">
+        <v>-0.01787555288203254</v>
+      </c>
+      <c r="G12">
+        <v>0.03813846326435265</v>
+      </c>
+      <c r="H12">
+        <v>0.06519504090115291</v>
+      </c>
+      <c r="I12">
+        <v>0.02254306314766958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003711377418179343</v>
+        <v>-0.004610933070744127</v>
       </c>
       <c r="C13">
-        <v>0.02341642006297297</v>
+        <v>-0.04942174496332426</v>
       </c>
       <c r="D13">
-        <v>0.1338430091491601</v>
+        <v>0.1475143856594469</v>
       </c>
       <c r="E13">
-        <v>-0.05180825518844745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04037511555629053</v>
+      </c>
+      <c r="F13">
+        <v>0.03480873458865833</v>
+      </c>
+      <c r="G13">
+        <v>-0.00367579120215461</v>
+      </c>
+      <c r="H13">
+        <v>0.08237537440075009</v>
+      </c>
+      <c r="I13">
+        <v>-0.07705520937366994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004110987428121304</v>
+        <v>0.001967315102895473</v>
       </c>
       <c r="C14">
-        <v>0.01553654593001958</v>
+        <v>-0.03208391436702326</v>
       </c>
       <c r="D14">
-        <v>0.08956146248765016</v>
+        <v>0.09789254654770636</v>
       </c>
       <c r="E14">
-        <v>-0.02281375672991465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.04991305294427829</v>
+      </c>
+      <c r="F14">
+        <v>0.03563406410949426</v>
+      </c>
+      <c r="G14">
+        <v>0.00965581453361152</v>
+      </c>
+      <c r="H14">
+        <v>0.1407395606755225</v>
+      </c>
+      <c r="I14">
+        <v>0.006482798839166769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003021717139211658</v>
+        <v>-0.003637941089326658</v>
       </c>
       <c r="C15">
-        <v>0.01037977320458741</v>
+        <v>-0.02835524233325323</v>
       </c>
       <c r="D15">
-        <v>0.03331820719676984</v>
+        <v>0.06191207317158818</v>
       </c>
       <c r="E15">
-        <v>4.954006311430254e-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01306859713582242</v>
+      </c>
+      <c r="F15">
+        <v>0.008351354956016193</v>
+      </c>
+      <c r="G15">
+        <v>-0.0111024040075943</v>
+      </c>
+      <c r="H15">
+        <v>0.0459043585603264</v>
+      </c>
+      <c r="I15">
+        <v>0.0188054881520993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01767872304481714</v>
+        <v>0.00852998142384542</v>
       </c>
       <c r="C16">
-        <v>0.03697656636165131</v>
+        <v>-0.05074493727072437</v>
       </c>
       <c r="D16">
-        <v>0.05151878951949967</v>
+        <v>0.0427012083118091</v>
       </c>
       <c r="E16">
-        <v>0.004842941481361666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02240649900818385</v>
+      </c>
+      <c r="F16">
+        <v>-0.009069326685320685</v>
+      </c>
+      <c r="G16">
+        <v>0.02829569028289765</v>
+      </c>
+      <c r="H16">
+        <v>0.04613648447378054</v>
+      </c>
+      <c r="I16">
+        <v>0.04382950015057112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.001442000069635124</v>
+        <v>-0.001512740001308898</v>
       </c>
       <c r="C19">
-        <v>0.01808491142874204</v>
+        <v>-0.01593331797727822</v>
       </c>
       <c r="D19">
-        <v>0.08306226378493885</v>
+        <v>0.05741968698824751</v>
       </c>
       <c r="E19">
-        <v>-0.04391334455251214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01230321349668502</v>
+      </c>
+      <c r="F19">
+        <v>0.01426350757571575</v>
+      </c>
+      <c r="G19">
+        <v>-0.007517391551487532</v>
+      </c>
+      <c r="H19">
+        <v>0.05235787465296846</v>
+      </c>
+      <c r="I19">
+        <v>-0.02072806060268925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002835356502501835</v>
+        <v>0.004074510563060298</v>
       </c>
       <c r="C20">
-        <v>0.02456526193431769</v>
+        <v>-0.04213907663917325</v>
       </c>
       <c r="D20">
-        <v>0.07657891418489018</v>
+        <v>0.08691177645128791</v>
       </c>
       <c r="E20">
-        <v>-0.03914267921265452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02434568172050231</v>
+      </c>
+      <c r="F20">
+        <v>0.02730626502987528</v>
+      </c>
+      <c r="G20">
+        <v>0.01853555758136841</v>
+      </c>
+      <c r="H20">
+        <v>0.05641086850151687</v>
+      </c>
+      <c r="I20">
+        <v>0.04968562793741188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.004884203852351473</v>
+        <v>0.002532769459800967</v>
       </c>
       <c r="C21">
-        <v>0.02599999057619977</v>
+        <v>-0.04509336202341383</v>
       </c>
       <c r="D21">
-        <v>0.1404344519100232</v>
+        <v>0.126939681786659</v>
       </c>
       <c r="E21">
-        <v>-0.09385442742148691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02903008552648003</v>
+      </c>
+      <c r="F21">
+        <v>0.09629802752583055</v>
+      </c>
+      <c r="G21">
+        <v>0.007004822973343297</v>
+      </c>
+      <c r="H21">
+        <v>0.2007018835304842</v>
+      </c>
+      <c r="I21">
+        <v>-0.09739470099060753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00133868721456113</v>
+        <v>-0.01545402428385357</v>
       </c>
       <c r="C22">
-        <v>0.0662124568142871</v>
+        <v>-0.08841941346492693</v>
       </c>
       <c r="D22">
-        <v>0.2692008750196658</v>
+        <v>0.266735139889571</v>
       </c>
       <c r="E22">
-        <v>-0.02799085784653808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06745398039648969</v>
+      </c>
+      <c r="F22">
+        <v>0.01764442700418771</v>
+      </c>
+      <c r="G22">
+        <v>-0.4187700898365473</v>
+      </c>
+      <c r="H22">
+        <v>-0.3583918237282846</v>
+      </c>
+      <c r="I22">
+        <v>-0.02614150522410371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001637987337105799</v>
+        <v>-0.01227803681054007</v>
       </c>
       <c r="C23">
-        <v>0.06668748975257975</v>
+        <v>-0.09020529265919637</v>
       </c>
       <c r="D23">
-        <v>0.2686966669762776</v>
+        <v>0.2693825305121826</v>
       </c>
       <c r="E23">
-        <v>-0.02823448930431577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06250153412161867</v>
+      </c>
+      <c r="F23">
+        <v>0.02066313133912124</v>
+      </c>
+      <c r="G23">
+        <v>-0.4056307018702699</v>
+      </c>
+      <c r="H23">
+        <v>-0.3439035562544115</v>
+      </c>
+      <c r="I23">
+        <v>-0.02792905185587655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02328014248861294</v>
+        <v>0.009200887173848701</v>
       </c>
       <c r="C24">
-        <v>0.05686016340870616</v>
+        <v>-0.06714602481680437</v>
       </c>
       <c r="D24">
-        <v>0.05992443315701705</v>
+        <v>0.04578100005199474</v>
       </c>
       <c r="E24">
-        <v>0.002115509864323215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02871818580239894</v>
+      </c>
+      <c r="F24">
+        <v>-0.00520184242688183</v>
+      </c>
+      <c r="G24">
+        <v>0.01859356605897464</v>
+      </c>
+      <c r="H24">
+        <v>0.07201050711259041</v>
+      </c>
+      <c r="I24">
+        <v>0.03997114717881219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02396142230246312</v>
+        <v>0.01352861035541924</v>
       </c>
       <c r="C25">
-        <v>0.04808629914617737</v>
+        <v>-0.06153993862034107</v>
       </c>
       <c r="D25">
-        <v>0.05603544922237414</v>
+        <v>0.04903011712340849</v>
       </c>
       <c r="E25">
-        <v>-0.004498843073059884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01422745266549376</v>
+      </c>
+      <c r="F25">
+        <v>-0.005545721947306669</v>
+      </c>
+      <c r="G25">
+        <v>0.01923844999472301</v>
+      </c>
+      <c r="H25">
+        <v>0.03779360371131127</v>
+      </c>
+      <c r="I25">
+        <v>0.03241964729261416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009105345276175724</v>
+        <v>0.01629280500345638</v>
       </c>
       <c r="C26">
-        <v>0.01393577812441179</v>
+        <v>-0.02932631436000989</v>
       </c>
       <c r="D26">
-        <v>0.07853727098660708</v>
+        <v>0.06670169041525988</v>
       </c>
       <c r="E26">
-        <v>-0.02840517953942855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04064479904650763</v>
+      </c>
+      <c r="F26">
+        <v>0.04552685005441649</v>
+      </c>
+      <c r="G26">
+        <v>0.01625381103399642</v>
+      </c>
+      <c r="H26">
+        <v>0.1036134245916811</v>
+      </c>
+      <c r="I26">
+        <v>0.002342580740727902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.261710801259838</v>
+        <v>0.3218641045876251</v>
       </c>
       <c r="C28">
-        <v>-0.1940653728346116</v>
+        <v>0.0846256229220721</v>
       </c>
       <c r="D28">
-        <v>0.01280541613053031</v>
+        <v>-0.01601291745847088</v>
       </c>
       <c r="E28">
-        <v>-0.05518674442920268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04905039684081685</v>
+      </c>
+      <c r="F28">
+        <v>0.04791710663583004</v>
+      </c>
+      <c r="G28">
+        <v>-0.05384320858272146</v>
+      </c>
+      <c r="H28">
+        <v>0.00259430887685858</v>
+      </c>
+      <c r="I28">
+        <v>-0.01039161942049816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>1.813437755988457e-05</v>
+        <v>0.001055267139982906</v>
       </c>
       <c r="C29">
-        <v>0.01958837473193245</v>
+        <v>-0.03832667043742116</v>
       </c>
       <c r="D29">
-        <v>0.09081734174909882</v>
+        <v>0.1018128397138482</v>
       </c>
       <c r="E29">
-        <v>-0.03154506523827643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05623300802565861</v>
+      </c>
+      <c r="F29">
+        <v>0.03976009047034949</v>
+      </c>
+      <c r="G29">
+        <v>0.02403303765399526</v>
+      </c>
+      <c r="H29">
+        <v>0.1471215283069124</v>
+      </c>
+      <c r="I29">
+        <v>0.01600792808181824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02523712870191959</v>
+        <v>0.01332174882331847</v>
       </c>
       <c r="C30">
-        <v>0.0613433211623203</v>
+        <v>-0.09070681821202295</v>
       </c>
       <c r="D30">
-        <v>0.1525907546232979</v>
+        <v>0.1394487846751572</v>
       </c>
       <c r="E30">
-        <v>-0.03680499558267191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05399294722239127</v>
+      </c>
+      <c r="F30">
+        <v>0.02609051206656731</v>
+      </c>
+      <c r="G30">
+        <v>-0.01708402251274155</v>
+      </c>
+      <c r="H30">
+        <v>0.05195093861619778</v>
+      </c>
+      <c r="I30">
+        <v>0.03812222747818153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03515555654509695</v>
+        <v>0.006299806618973172</v>
       </c>
       <c r="C31">
-        <v>0.08439074206089746</v>
+        <v>-0.09431079686724629</v>
       </c>
       <c r="D31">
-        <v>0.06296745012221004</v>
+        <v>0.0392473266597322</v>
       </c>
       <c r="E31">
-        <v>-0.01897180214758259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02102926526475831</v>
+      </c>
+      <c r="F31">
+        <v>0.0149155651152707</v>
+      </c>
+      <c r="G31">
+        <v>0.007741808439557313</v>
+      </c>
+      <c r="H31">
+        <v>0.04779291100372098</v>
+      </c>
+      <c r="I31">
+        <v>0.01515260885654917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01538116907148851</v>
+        <v>0.009306872800621967</v>
       </c>
       <c r="C32">
-        <v>0.03372629610153824</v>
+        <v>-0.04791467605561477</v>
       </c>
       <c r="D32">
-        <v>0.06628960356932256</v>
+        <v>0.09236508831880333</v>
       </c>
       <c r="E32">
-        <v>-0.06240742303676917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002729097214316793</v>
+      </c>
+      <c r="F32">
+        <v>0.05069017871731148</v>
+      </c>
+      <c r="G32">
+        <v>-0.006052269632915916</v>
+      </c>
+      <c r="H32">
+        <v>0.05009439427861877</v>
+      </c>
+      <c r="I32">
+        <v>-0.05848583560475273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007060639333020971</v>
+        <v>0.003893971005253105</v>
       </c>
       <c r="C33">
-        <v>0.03992161119922454</v>
+        <v>-0.06081050593659759</v>
       </c>
       <c r="D33">
-        <v>0.1237959610769374</v>
+        <v>0.1193539122836028</v>
       </c>
       <c r="E33">
-        <v>-0.04639307217304477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03048474386276272</v>
+      </c>
+      <c r="F33">
+        <v>0.02648822251397516</v>
+      </c>
+      <c r="G33">
+        <v>0.01055109484042637</v>
+      </c>
+      <c r="H33">
+        <v>0.06312524059449125</v>
+      </c>
+      <c r="I33">
+        <v>0.02230813306460148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02076759873879986</v>
+        <v>0.006896097769809704</v>
       </c>
       <c r="C34">
-        <v>0.05866156919076235</v>
+        <v>-0.06208087813225896</v>
       </c>
       <c r="D34">
-        <v>0.05357244031755121</v>
+        <v>0.02618109529010065</v>
       </c>
       <c r="E34">
-        <v>0.04456273479380776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02838850107767789</v>
+      </c>
+      <c r="F34">
+        <v>-0.04075627844742017</v>
+      </c>
+      <c r="G34">
+        <v>0.019872343478809</v>
+      </c>
+      <c r="H34">
+        <v>0.05152005473805475</v>
+      </c>
+      <c r="I34">
+        <v>0.02121996437774844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002334519324320676</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01190027058217008</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03379651591084703</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003984642194587371</v>
+      </c>
+      <c r="F35">
+        <v>0.01856406947214978</v>
+      </c>
+      <c r="G35">
+        <v>0.0113109363174002</v>
+      </c>
+      <c r="H35">
+        <v>0.05671796941801965</v>
+      </c>
+      <c r="I35">
+        <v>0.02316969709479441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.00669616786680519</v>
+        <v>0.01132056982922024</v>
       </c>
       <c r="C36">
-        <v>0.005782974028193918</v>
+        <v>-0.02253813593655023</v>
       </c>
       <c r="D36">
-        <v>0.07852687978667695</v>
+        <v>0.07483395427148826</v>
       </c>
       <c r="E36">
-        <v>-0.05224335163290039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02876107640446391</v>
+      </c>
+      <c r="F36">
+        <v>0.05073323021523547</v>
+      </c>
+      <c r="G36">
+        <v>0.008180930310395284</v>
+      </c>
+      <c r="H36">
+        <v>0.06867011735842926</v>
+      </c>
+      <c r="I36">
+        <v>0.006108759134521914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006151199194916053</v>
+        <v>0.01142293889305836</v>
       </c>
       <c r="C38">
-        <v>0.00670556418097582</v>
+        <v>-0.02611572223167312</v>
       </c>
       <c r="D38">
-        <v>0.08377841505205029</v>
+        <v>0.08673215361775491</v>
       </c>
       <c r="E38">
-        <v>-0.01299217685694519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00823747281464784</v>
+      </c>
+      <c r="F38">
+        <v>0.004488159668782438</v>
+      </c>
+      <c r="G38">
+        <v>-0.01805111508872258</v>
+      </c>
+      <c r="H38">
+        <v>0.07230090894276753</v>
+      </c>
+      <c r="I38">
+        <v>0.03819809691136306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01675075516979976</v>
+        <v>0.003316575220785625</v>
       </c>
       <c r="C39">
-        <v>0.05833716662293128</v>
+        <v>-0.0787375309803474</v>
       </c>
       <c r="D39">
-        <v>0.1083607466637656</v>
+        <v>0.08868559194884731</v>
       </c>
       <c r="E39">
-        <v>0.003834595178085639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05079975701615751</v>
+      </c>
+      <c r="F39">
+        <v>-0.007219911260334478</v>
+      </c>
+      <c r="G39">
+        <v>0.02759953181306162</v>
+      </c>
+      <c r="H39">
+        <v>0.1009050011773987</v>
+      </c>
+      <c r="I39">
+        <v>0.04087341096826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01549549459997952</v>
+        <v>0.01192814651052038</v>
       </c>
       <c r="C40">
-        <v>0.02308323104453627</v>
+        <v>-0.03821869073742584</v>
       </c>
       <c r="D40">
-        <v>0.1120885268168448</v>
+        <v>0.09727523808459175</v>
       </c>
       <c r="E40">
-        <v>-0.005892670706023566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04049495330871372</v>
+      </c>
+      <c r="F40">
+        <v>-0.008476422721455688</v>
+      </c>
+      <c r="G40">
+        <v>-0.05456542402315296</v>
+      </c>
+      <c r="H40">
+        <v>0.1154026200175177</v>
+      </c>
+      <c r="I40">
+        <v>-0.05124327224488986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01015783737093154</v>
+        <v>0.01493808164307574</v>
       </c>
       <c r="C41">
-        <v>0.003926350009823364</v>
+        <v>-0.0196067666449754</v>
       </c>
       <c r="D41">
-        <v>0.03391706307315779</v>
+        <v>0.04402700147489629</v>
       </c>
       <c r="E41">
-        <v>-0.03033963538720459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005502393010333357</v>
+      </c>
+      <c r="F41">
+        <v>0.02382584625335302</v>
+      </c>
+      <c r="G41">
+        <v>0.003283761340109325</v>
+      </c>
+      <c r="H41">
+        <v>0.04794767398615919</v>
+      </c>
+      <c r="I41">
+        <v>0.01470992926934078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001041713752526773</v>
+        <v>0.007901431348990948</v>
       </c>
       <c r="C43">
-        <v>0.003361502646374374</v>
+        <v>-0.01575585045441223</v>
       </c>
       <c r="D43">
-        <v>0.04970641965824519</v>
+        <v>0.051798318513637</v>
       </c>
       <c r="E43">
-        <v>-0.0238289527283371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01141104524982489</v>
+      </c>
+      <c r="F43">
+        <v>0.02180382918903801</v>
+      </c>
+      <c r="G43">
+        <v>0.001521733939615571</v>
+      </c>
+      <c r="H43">
+        <v>0.05824705646034161</v>
+      </c>
+      <c r="I43">
+        <v>0.03783208920274742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01705864650468205</v>
+        <v>0.0110546569289847</v>
       </c>
       <c r="C44">
-        <v>0.02447857846535088</v>
+        <v>-0.04919415059607191</v>
       </c>
       <c r="D44">
-        <v>0.08392966870160574</v>
+        <v>0.1005180254016561</v>
       </c>
       <c r="E44">
-        <v>-0.05184910402165992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03620324263534581</v>
+      </c>
+      <c r="F44">
+        <v>0.03694464261708758</v>
+      </c>
+      <c r="G44">
+        <v>-0.02633318604450894</v>
+      </c>
+      <c r="H44">
+        <v>0.05472024079485361</v>
+      </c>
+      <c r="I44">
+        <v>0.03469478851936371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007093057904622019</v>
+        <v>-0.001020894662765275</v>
       </c>
       <c r="C46">
-        <v>0.02902177484707128</v>
+        <v>-0.04257434386905831</v>
       </c>
       <c r="D46">
-        <v>0.08006560344388156</v>
+        <v>0.0703701656189745</v>
       </c>
       <c r="E46">
-        <v>-0.02466908375117575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0422645224480423</v>
+      </c>
+      <c r="F46">
+        <v>0.03281958767057916</v>
+      </c>
+      <c r="G46">
+        <v>0.004009162693024041</v>
+      </c>
+      <c r="H46">
+        <v>0.133967156550843</v>
+      </c>
+      <c r="I46">
+        <v>0.03835716165107467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07814911966483226</v>
+        <v>0.02941554654337674</v>
       </c>
       <c r="C47">
-        <v>0.1068519876181463</v>
+        <v>-0.1280642564964951</v>
       </c>
       <c r="D47">
-        <v>0.05530550854027338</v>
+        <v>0.02345156909687106</v>
       </c>
       <c r="E47">
-        <v>-0.02930694005246898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009721252842382313</v>
+      </c>
+      <c r="F47">
+        <v>-0.003539575220425698</v>
+      </c>
+      <c r="G47">
+        <v>0.04795438384278599</v>
+      </c>
+      <c r="H47">
+        <v>0.05422432414775004</v>
+      </c>
+      <c r="I47">
+        <v>-0.001256247634793854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009764610591764301</v>
+        <v>0.01383008476080921</v>
       </c>
       <c r="C48">
-        <v>0.01576485335706598</v>
+        <v>-0.03369792450919779</v>
       </c>
       <c r="D48">
-        <v>0.07523029768030508</v>
+        <v>0.07680013972154567</v>
       </c>
       <c r="E48">
-        <v>-0.05767846428243787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02077027361203849</v>
+      </c>
+      <c r="F48">
+        <v>0.05902520882572539</v>
+      </c>
+      <c r="G48">
+        <v>0.007578051798626482</v>
+      </c>
+      <c r="H48">
+        <v>0.1113680893136073</v>
+      </c>
+      <c r="I48">
+        <v>0.02229913897877933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03205320274226078</v>
+        <v>0.01026756674821414</v>
       </c>
       <c r="C50">
-        <v>0.05795086554192416</v>
+        <v>-0.07566330250283895</v>
       </c>
       <c r="D50">
-        <v>0.05839864782953057</v>
+        <v>0.04873976024192542</v>
       </c>
       <c r="E50">
-        <v>-0.01270642600943733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01578306833622212</v>
+      </c>
+      <c r="F50">
+        <v>0.008775156537631057</v>
+      </c>
+      <c r="G50">
+        <v>-0.00253425920474459</v>
+      </c>
+      <c r="H50">
+        <v>0.0365260212545351</v>
+      </c>
+      <c r="I50">
+        <v>0.02244103001660326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00219151428172888</v>
+        <v>-0.001510501924048529</v>
       </c>
       <c r="C51">
-        <v>0.005241607862635138</v>
+        <v>-0.01711754578638294</v>
       </c>
       <c r="D51">
-        <v>0.05333160752751962</v>
+        <v>0.05455437738249296</v>
       </c>
       <c r="E51">
-        <v>-0.01324891049623868</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03547461464855227</v>
+      </c>
+      <c r="F51">
+        <v>0.03864189810938578</v>
+      </c>
+      <c r="G51">
+        <v>-0.01429717213795277</v>
+      </c>
+      <c r="H51">
+        <v>0.05485558579996544</v>
+      </c>
+      <c r="I51">
+        <v>-0.01805555616699632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1057893901175989</v>
+        <v>0.04969340834968011</v>
       </c>
       <c r="C53">
-        <v>0.126286684429072</v>
+        <v>-0.1575756567959653</v>
       </c>
       <c r="D53">
-        <v>0.001305565120600164</v>
+        <v>-0.0230957276983955</v>
       </c>
       <c r="E53">
-        <v>-0.05777859926886372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02820661593432151</v>
+      </c>
+      <c r="F53">
+        <v>0.05021286947779168</v>
+      </c>
+      <c r="G53">
+        <v>0.0009076313079876677</v>
+      </c>
+      <c r="H53">
+        <v>0.01041890091980771</v>
+      </c>
+      <c r="I53">
+        <v>0.01369678426364881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.00996615499089077</v>
+        <v>0.009320870167933591</v>
       </c>
       <c r="C54">
-        <v>0.0200990918220623</v>
+        <v>-0.03855148975626401</v>
       </c>
       <c r="D54">
-        <v>0.08690937316671643</v>
+        <v>0.07735447047871633</v>
       </c>
       <c r="E54">
-        <v>-0.01264644584436857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01918363456390539</v>
+      </c>
+      <c r="F54">
+        <v>0.004444539377587447</v>
+      </c>
+      <c r="G54">
+        <v>-0.009008775483398616</v>
+      </c>
+      <c r="H54">
+        <v>0.08280873636996257</v>
+      </c>
+      <c r="I54">
+        <v>0.06201358602936213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09299221041828207</v>
+        <v>0.03847216543460759</v>
       </c>
       <c r="C55">
-        <v>0.1073751539088099</v>
+        <v>-0.13170560555244</v>
       </c>
       <c r="D55">
-        <v>0.005915173067781075</v>
+        <v>-0.03251635953176966</v>
       </c>
       <c r="E55">
-        <v>-0.00892172286872992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.006721837788894726</v>
+      </c>
+      <c r="F55">
+        <v>0.01203973785067175</v>
+      </c>
+      <c r="G55">
+        <v>-0.001371379376729271</v>
+      </c>
+      <c r="H55">
+        <v>0.01625872015179016</v>
+      </c>
+      <c r="I55">
+        <v>-0.009887997679109245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1330028767334527</v>
+        <v>0.05361553956672118</v>
       </c>
       <c r="C56">
-        <v>0.1466812926974677</v>
+        <v>-0.1923603499748963</v>
       </c>
       <c r="D56">
-        <v>0.004605811660308038</v>
+        <v>-0.03121173757339388</v>
       </c>
       <c r="E56">
-        <v>-0.008076916386343582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02933684069407587</v>
+      </c>
+      <c r="F56">
+        <v>0.01636886807616102</v>
+      </c>
+      <c r="G56">
+        <v>-0.04795867007938147</v>
+      </c>
+      <c r="H56">
+        <v>0.01888831427083281</v>
+      </c>
+      <c r="I56">
+        <v>-0.01655490467322946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.008366762136525608</v>
+        <v>0.0032860637562782</v>
       </c>
       <c r="C58">
-        <v>0.009683975190085077</v>
+        <v>-0.0565237857632063</v>
       </c>
       <c r="D58">
-        <v>0.2071617799039943</v>
+        <v>0.2866594004347146</v>
       </c>
       <c r="E58">
-        <v>-0.1078314798182205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02360369306870948</v>
+      </c>
+      <c r="F58">
+        <v>0.1171150681467269</v>
+      </c>
+      <c r="G58">
+        <v>-0.1559282218665898</v>
+      </c>
+      <c r="H58">
+        <v>-0.08155182030616663</v>
+      </c>
+      <c r="I58">
+        <v>0.03899104096565987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1837442760806548</v>
+        <v>0.2556670273042449</v>
       </c>
       <c r="C59">
-        <v>-0.1454098567885713</v>
+        <v>0.05655965611167486</v>
       </c>
       <c r="D59">
-        <v>0.03828487885690234</v>
+        <v>0.05607753902207891</v>
       </c>
       <c r="E59">
-        <v>-0.03716761767484347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02137740407811718</v>
+      </c>
+      <c r="F59">
+        <v>0.02376080783669952</v>
+      </c>
+      <c r="G59">
+        <v>-0.006387132703374026</v>
+      </c>
+      <c r="H59">
+        <v>0.004751198004214372</v>
+      </c>
+      <c r="I59">
+        <v>-0.05465045535891793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1831732585471678</v>
+        <v>0.1457511853564109</v>
       </c>
       <c r="C60">
-        <v>0.1043427582114086</v>
+        <v>-0.1762886940749399</v>
       </c>
       <c r="D60">
-        <v>0.2390035573514696</v>
+        <v>0.0943993899809204</v>
       </c>
       <c r="E60">
-        <v>0.1090394837432746</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.158058396868323</v>
+      </c>
+      <c r="F60">
+        <v>-0.2268929795046644</v>
+      </c>
+      <c r="G60">
+        <v>0.2156314368004412</v>
+      </c>
+      <c r="H60">
+        <v>-0.2471553284032268</v>
+      </c>
+      <c r="I60">
+        <v>-0.1125716862119278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02495543295815927</v>
+        <v>0.01047621935189184</v>
       </c>
       <c r="C61">
-        <v>0.052771440985629</v>
+        <v>-0.07470063428412919</v>
       </c>
       <c r="D61">
-        <v>0.08797360631645472</v>
+        <v>0.0719267151667275</v>
       </c>
       <c r="E61">
-        <v>0.001282287440443039</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03813192034381506</v>
+      </c>
+      <c r="F61">
+        <v>-0.01490971378755423</v>
+      </c>
+      <c r="G61">
+        <v>0.04018036521812329</v>
+      </c>
+      <c r="H61">
+        <v>0.08380014195798023</v>
+      </c>
+      <c r="I61">
+        <v>0.03060843723231317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006881662038366724</v>
+        <v>0.008489888001454456</v>
       </c>
       <c r="C63">
-        <v>0.02311711902224788</v>
+        <v>-0.0371902460390236</v>
       </c>
       <c r="D63">
-        <v>0.09468905357799565</v>
+        <v>0.06729917631864704</v>
       </c>
       <c r="E63">
-        <v>-0.02748914865731129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05809312601675848</v>
+      </c>
+      <c r="F63">
+        <v>0.0258098322957286</v>
+      </c>
+      <c r="G63">
+        <v>0.0123766420807877</v>
+      </c>
+      <c r="H63">
+        <v>0.07279115705980156</v>
+      </c>
+      <c r="I63">
+        <v>0.02871405011668303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05523974852197573</v>
+        <v>0.01468378236004229</v>
       </c>
       <c r="C64">
-        <v>0.08615065659887773</v>
+        <v>-0.1054635372456589</v>
       </c>
       <c r="D64">
-        <v>0.01185598181220961</v>
+        <v>0.004911221211914913</v>
       </c>
       <c r="E64">
-        <v>-0.007996752798730434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02367948925439293</v>
+      </c>
+      <c r="F64">
+        <v>0.01148144500369908</v>
+      </c>
+      <c r="G64">
+        <v>0.04690688962003123</v>
+      </c>
+      <c r="H64">
+        <v>0.06228712353870682</v>
+      </c>
+      <c r="I64">
+        <v>0.05418855517602075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02546109247430905</v>
+        <v>0.01982497365995887</v>
       </c>
       <c r="C65">
-        <v>0.01549013632782651</v>
+        <v>-0.04473880598785881</v>
       </c>
       <c r="D65">
-        <v>0.1074685859409434</v>
+        <v>0.1131184828764328</v>
       </c>
       <c r="E65">
-        <v>-0.01893016882862029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04526707660914986</v>
+      </c>
+      <c r="F65">
+        <v>-0.006132221362277512</v>
+      </c>
+      <c r="G65">
+        <v>0.02632671254863388</v>
+      </c>
+      <c r="H65">
+        <v>0.01264629441733181</v>
+      </c>
+      <c r="I65">
+        <v>0.06775072244227616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02109412739201932</v>
+        <v>0.0004136267522617116</v>
       </c>
       <c r="C66">
-        <v>0.06770932716090375</v>
+        <v>-0.09767762223036926</v>
       </c>
       <c r="D66">
-        <v>0.1196495001430842</v>
+        <v>0.1178911939263441</v>
       </c>
       <c r="E66">
-        <v>0.005205735321766447</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0425949058516488</v>
+      </c>
+      <c r="F66">
+        <v>-0.009468332271689571</v>
+      </c>
+      <c r="G66">
+        <v>-0.003027645741096427</v>
+      </c>
+      <c r="H66">
+        <v>0.068927143873107</v>
+      </c>
+      <c r="I66">
+        <v>0.04109838166117467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0242387013322981</v>
+        <v>0.02129165968829121</v>
       </c>
       <c r="C67">
-        <v>0.02000306835385854</v>
+        <v>-0.03718554025911012</v>
       </c>
       <c r="D67">
-        <v>0.04468788150605404</v>
+        <v>0.0418358073286357</v>
       </c>
       <c r="E67">
-        <v>0.01794951432863777</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01292062409904287</v>
+      </c>
+      <c r="F67">
+        <v>-0.02588932239101184</v>
+      </c>
+      <c r="G67">
+        <v>-0.003040389702993781</v>
+      </c>
+      <c r="H67">
+        <v>0.07006639151252413</v>
+      </c>
+      <c r="I67">
+        <v>0.03518285688079796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2057771748604195</v>
+        <v>0.2760441916486548</v>
       </c>
       <c r="C68">
-        <v>-0.1544351254580893</v>
+        <v>0.06289288093591991</v>
       </c>
       <c r="D68">
-        <v>0.03357059960463755</v>
+        <v>0.02961402510597674</v>
       </c>
       <c r="E68">
-        <v>-0.01728980618431317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.002651384677768587</v>
+      </c>
+      <c r="F68">
+        <v>0.02978362473567218</v>
+      </c>
+      <c r="G68">
+        <v>-0.07337931731183539</v>
+      </c>
+      <c r="H68">
+        <v>-0.04424999318032261</v>
+      </c>
+      <c r="I68">
+        <v>-0.02536178884148133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05291221555377085</v>
+        <v>0.01440479809565663</v>
       </c>
       <c r="C69">
-        <v>0.1165380778020629</v>
+        <v>-0.1178665998836803</v>
       </c>
       <c r="D69">
-        <v>0.07612584819437261</v>
+        <v>0.02813280543013863</v>
       </c>
       <c r="E69">
-        <v>-0.019013848813901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008981338951008598</v>
+      </c>
+      <c r="F69">
+        <v>-0.008372472386988574</v>
+      </c>
+      <c r="G69">
+        <v>0.02795562053034372</v>
+      </c>
+      <c r="H69">
+        <v>0.04319631840940785</v>
+      </c>
+      <c r="I69">
+        <v>0.003752799639070968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2158578066711791</v>
+        <v>0.2775162095784417</v>
       </c>
       <c r="C71">
-        <v>-0.1784629165083826</v>
+        <v>0.076302859437419</v>
       </c>
       <c r="D71">
-        <v>0.01382850989523539</v>
+        <v>0.01689700214683248</v>
       </c>
       <c r="E71">
-        <v>-0.01325752071466021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002641689874226871</v>
+      </c>
+      <c r="F71">
+        <v>0.02154857556935152</v>
+      </c>
+      <c r="G71">
+        <v>-0.03755876217750712</v>
+      </c>
+      <c r="H71">
+        <v>0.02008516765993084</v>
+      </c>
+      <c r="I71">
+        <v>-0.01681793282360765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1008455356000244</v>
+        <v>0.05246757842532725</v>
       </c>
       <c r="C72">
-        <v>0.07817441686383465</v>
+        <v>-0.1282337637749938</v>
       </c>
       <c r="D72">
-        <v>0.116317469116075</v>
+        <v>0.05659831267111809</v>
       </c>
       <c r="E72">
-        <v>0.02367181365414945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06898363034787176</v>
+      </c>
+      <c r="F72">
+        <v>-0.02672720906323992</v>
+      </c>
+      <c r="G72">
+        <v>0.04217781815908149</v>
+      </c>
+      <c r="H72">
+        <v>0.04669234780651777</v>
+      </c>
+      <c r="I72">
+        <v>0.04248468985671209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1720977642350077</v>
+        <v>0.1359561056025559</v>
       </c>
       <c r="C73">
-        <v>0.07069515807300379</v>
+        <v>-0.1525655400222002</v>
       </c>
       <c r="D73">
-        <v>0.3113513677637931</v>
+        <v>0.09993441613905925</v>
       </c>
       <c r="E73">
-        <v>0.1759546791765318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2823064779266836</v>
+      </c>
+      <c r="F73">
+        <v>-0.3143800479795615</v>
+      </c>
+      <c r="G73">
+        <v>0.3793566222372831</v>
+      </c>
+      <c r="H73">
+        <v>-0.1957023973443955</v>
+      </c>
+      <c r="I73">
+        <v>-0.01683486738539096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1053068226382139</v>
+        <v>0.04713746600580449</v>
       </c>
       <c r="C74">
-        <v>0.1150801003618611</v>
+        <v>-0.1444485404676607</v>
       </c>
       <c r="D74">
-        <v>-0.0207701089392586</v>
+        <v>-0.04199206069194906</v>
       </c>
       <c r="E74">
-        <v>-0.03705750573011167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01080780172960648</v>
+      </c>
+      <c r="F74">
+        <v>0.03639930826829712</v>
+      </c>
+      <c r="G74">
+        <v>0.005239788057743036</v>
+      </c>
+      <c r="H74">
+        <v>-0.01434663815092477</v>
+      </c>
+      <c r="I74">
+        <v>-0.01235069082236159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2297379205315619</v>
+        <v>0.1005812657899505</v>
       </c>
       <c r="C75">
-        <v>0.2024507359329356</v>
+        <v>-0.2695861934008953</v>
       </c>
       <c r="D75">
-        <v>-0.1050579965313751</v>
+        <v>-0.1327028467262889</v>
       </c>
       <c r="E75">
-        <v>0.04546318331475537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09205317016759627</v>
+      </c>
+      <c r="F75">
+        <v>-0.02520464225281419</v>
+      </c>
+      <c r="G75">
+        <v>-0.101157424084688</v>
+      </c>
+      <c r="H75">
+        <v>0.03202780323923881</v>
+      </c>
+      <c r="I75">
+        <v>-0.01190411073232839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1350047150272069</v>
+        <v>0.05564304178496925</v>
       </c>
       <c r="C76">
-        <v>0.1403302820849428</v>
+        <v>-0.1816088204221777</v>
       </c>
       <c r="D76">
-        <v>0.005872361647312767</v>
+        <v>-0.04343292455156114</v>
       </c>
       <c r="E76">
-        <v>-0.003570621682502223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02007280724377647</v>
+      </c>
+      <c r="F76">
+        <v>0.002627632524743253</v>
+      </c>
+      <c r="G76">
+        <v>-0.03273127152816289</v>
+      </c>
+      <c r="H76">
+        <v>0.03749441943802354</v>
+      </c>
+      <c r="I76">
+        <v>0.004110068118025998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01910885189372877</v>
+        <v>-0.0006030556199967341</v>
       </c>
       <c r="C77">
-        <v>0.06801452974354547</v>
+        <v>-0.1056899813295076</v>
       </c>
       <c r="D77">
-        <v>-0.06378779606717931</v>
+        <v>0.3234875259694866</v>
       </c>
       <c r="E77">
-        <v>-0.1435304524350149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8429920893379614</v>
+      </c>
+      <c r="F77">
+        <v>-0.2139534994811531</v>
+      </c>
+      <c r="G77">
+        <v>0.1805571351403429</v>
+      </c>
+      <c r="H77">
+        <v>-0.1645473952926112</v>
+      </c>
+      <c r="I77">
+        <v>0.04373372100416263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02816418785189963</v>
+        <v>0.01468714835440504</v>
       </c>
       <c r="C78">
-        <v>0.07077867495381025</v>
+        <v>-0.09243437417906257</v>
       </c>
       <c r="D78">
-        <v>0.1392708952691677</v>
+        <v>0.1100319083421236</v>
       </c>
       <c r="E78">
-        <v>-0.05582781403222676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0663953689086506</v>
+      </c>
+      <c r="F78">
+        <v>0.04439148817466451</v>
+      </c>
+      <c r="G78">
+        <v>-0.03379007198981292</v>
+      </c>
+      <c r="H78">
+        <v>0.03647081827150847</v>
+      </c>
+      <c r="I78">
+        <v>-0.07823652141779353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09849356485630099</v>
+        <v>0.03383497566348675</v>
       </c>
       <c r="C79">
-        <v>0.1821404736229225</v>
+        <v>-0.19724514053434</v>
       </c>
       <c r="D79">
-        <v>-0.186510244989939</v>
+        <v>-0.0849489769108079</v>
       </c>
       <c r="E79">
-        <v>-0.8297686856475055</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05459007788904371</v>
+      </c>
+      <c r="F79">
+        <v>0.7758331584940549</v>
+      </c>
+      <c r="G79">
+        <v>0.3666709678944505</v>
+      </c>
+      <c r="H79">
+        <v>-0.338164938083031</v>
+      </c>
+      <c r="I79">
+        <v>0.02846346612816892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003668223338751188</v>
+        <v>0.003924389059398002</v>
       </c>
       <c r="C80">
-        <v>0.04375711698574227</v>
+        <v>-0.0444935548726075</v>
       </c>
       <c r="D80">
-        <v>0.04841635494350846</v>
+        <v>0.03756742396061338</v>
       </c>
       <c r="E80">
-        <v>0.005327955982391168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04214418373251126</v>
+      </c>
+      <c r="F80">
+        <v>0.0003535985066755715</v>
+      </c>
+      <c r="G80">
+        <v>0.003507089528323352</v>
+      </c>
+      <c r="H80">
+        <v>0.03005917660133563</v>
+      </c>
+      <c r="I80">
+        <v>-0.08620036845163392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1170795892767753</v>
+        <v>0.03947894257547196</v>
       </c>
       <c r="C81">
-        <v>0.1362497847131392</v>
+        <v>-0.1664784897249373</v>
       </c>
       <c r="D81">
-        <v>-0.07914983849384161</v>
+        <v>-0.08169213593698686</v>
       </c>
       <c r="E81">
-        <v>-0.03966175790234337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04777087143232377</v>
+      </c>
+      <c r="F81">
+        <v>0.06317302539284059</v>
+      </c>
+      <c r="G81">
+        <v>-0.04484656138050069</v>
+      </c>
+      <c r="H81">
+        <v>0.07735123320715392</v>
+      </c>
+      <c r="I81">
+        <v>-0.02335829545438556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2458214476079363</v>
+        <v>0.08332712267954716</v>
       </c>
       <c r="C82">
-        <v>0.2993438198225237</v>
+        <v>-0.3199738087285501</v>
       </c>
       <c r="D82">
-        <v>-0.1925947055968522</v>
+        <v>-0.2433786586607673</v>
       </c>
       <c r="E82">
-        <v>0.1829196539008595</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06511843686796027</v>
+      </c>
+      <c r="F82">
+        <v>-0.1121358546531328</v>
+      </c>
+      <c r="G82">
+        <v>-0.09539322550513091</v>
+      </c>
+      <c r="H82">
+        <v>0.1093603487599563</v>
+      </c>
+      <c r="I82">
+        <v>-0.01351286242580271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01016408313298076</v>
+        <v>-0.01748108490034512</v>
       </c>
       <c r="C83">
-        <v>0.05027763699291952</v>
+        <v>-0.0246270814355768</v>
       </c>
       <c r="D83">
-        <v>-0.009714445674813188</v>
+        <v>0.02556765578862277</v>
       </c>
       <c r="E83">
-        <v>-0.04819667590861264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09002048875222037</v>
+      </c>
+      <c r="F83">
+        <v>0.04800739960173169</v>
+      </c>
+      <c r="G83">
+        <v>0.02206504840460782</v>
+      </c>
+      <c r="H83">
+        <v>0.1133346168216018</v>
+      </c>
+      <c r="I83">
+        <v>-0.8943332286491068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0008249703705467126</v>
+        <v>-0.002829119091025015</v>
       </c>
       <c r="C84">
-        <v>-0.0002319841006429217</v>
+        <v>-0.0170330553463799</v>
       </c>
       <c r="D84">
-        <v>0.008780950258638018</v>
+        <v>0.04298070641877706</v>
       </c>
       <c r="E84">
-        <v>0.0009250552853710521</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001205662936708173</v>
+      </c>
+      <c r="F84">
+        <v>0.03392995260973522</v>
+      </c>
+      <c r="G84">
+        <v>-0.04580345418821933</v>
+      </c>
+      <c r="H84">
+        <v>0.03869837835952501</v>
+      </c>
+      <c r="I84">
+        <v>0.04948349356313101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1384309542727016</v>
+        <v>0.05282581865129064</v>
       </c>
       <c r="C85">
-        <v>0.1408157404485607</v>
+        <v>-0.1833872900859657</v>
       </c>
       <c r="D85">
-        <v>-0.05003749556694631</v>
+        <v>-0.09979995996525588</v>
       </c>
       <c r="E85">
-        <v>-0.02418883002149419</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0004061122976737493</v>
+      </c>
+      <c r="F85">
+        <v>0.0715389037241171</v>
+      </c>
+      <c r="G85">
+        <v>-0.02194537268726094</v>
+      </c>
+      <c r="H85">
+        <v>-0.007259241527274142</v>
+      </c>
+      <c r="I85">
+        <v>-0.02059378381513106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01484599285511354</v>
+        <v>0.01113281260034539</v>
       </c>
       <c r="C86">
-        <v>0.01440029562920112</v>
+        <v>-0.03641739513615343</v>
       </c>
       <c r="D86">
-        <v>0.0887047161575109</v>
+        <v>0.1119195940398648</v>
       </c>
       <c r="E86">
-        <v>-0.05699963253948995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01207178818646703</v>
+      </c>
+      <c r="F86">
+        <v>0.002610518602493973</v>
+      </c>
+      <c r="G86">
+        <v>0.0220258330883493</v>
+      </c>
+      <c r="H86">
+        <v>0.03039340337539971</v>
+      </c>
+      <c r="I86">
+        <v>0.01736156463253389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02048624072700581</v>
+        <v>0.0109367998507618</v>
       </c>
       <c r="C87">
-        <v>0.02715920981798533</v>
+        <v>-0.06063091024005517</v>
       </c>
       <c r="D87">
-        <v>0.12385954310658</v>
+        <v>0.1391682907199391</v>
       </c>
       <c r="E87">
-        <v>-0.06174842856455718</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01504639995014336</v>
+      </c>
+      <c r="F87">
+        <v>0.04004245264380149</v>
+      </c>
+      <c r="G87">
+        <v>-0.03987856558833779</v>
+      </c>
+      <c r="H87">
+        <v>0.05926238276698453</v>
+      </c>
+      <c r="I87">
+        <v>-0.04295439287859989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.04955905534355773</v>
+        <v>0.03045914896524952</v>
       </c>
       <c r="C88">
-        <v>0.04403280041932088</v>
+        <v>-0.06759224926536864</v>
       </c>
       <c r="D88">
-        <v>0.02017021813396726</v>
+        <v>0.01562438958193943</v>
       </c>
       <c r="E88">
-        <v>-0.03130228411919443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03029213948189288</v>
+      </c>
+      <c r="F88">
+        <v>0.02130547092327243</v>
+      </c>
+      <c r="G88">
+        <v>0.0142044198189444</v>
+      </c>
+      <c r="H88">
+        <v>0.0117185659914368</v>
+      </c>
+      <c r="I88">
+        <v>0.03299172376463819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3237406709720025</v>
+        <v>0.4088819215983486</v>
       </c>
       <c r="C89">
-        <v>-0.3217772760251204</v>
+        <v>0.1457469807544459</v>
       </c>
       <c r="D89">
-        <v>-0.0004892234997484006</v>
+        <v>0.03363838300531924</v>
       </c>
       <c r="E89">
-        <v>-0.09731337224537828</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05565096083618552</v>
+      </c>
+      <c r="F89">
+        <v>0.06349593347927859</v>
+      </c>
+      <c r="G89">
+        <v>0.001911560222556141</v>
+      </c>
+      <c r="H89">
+        <v>0.1204697294768173</v>
+      </c>
+      <c r="I89">
+        <v>-0.06709379305503708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2581698062164943</v>
+        <v>0.3220827122482249</v>
       </c>
       <c r="C90">
-        <v>-0.2349966456779345</v>
+        <v>0.09761309939706227</v>
       </c>
       <c r="D90">
-        <v>0.03967759670811688</v>
+        <v>0.03334136171653648</v>
       </c>
       <c r="E90">
-        <v>0.01130297107349828</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007091599686046966</v>
+      </c>
+      <c r="F90">
+        <v>-0.00692707052760025</v>
+      </c>
+      <c r="G90">
+        <v>-0.06592396037123301</v>
+      </c>
+      <c r="H90">
+        <v>-0.003297045500564949</v>
+      </c>
+      <c r="I90">
+        <v>-0.03926204921089194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1525288633235529</v>
+        <v>0.06294168589364199</v>
       </c>
       <c r="C91">
-        <v>0.1866835055308558</v>
+        <v>-0.2071241392490909</v>
       </c>
       <c r="D91">
-        <v>-0.1033128521781946</v>
+        <v>-0.1087165420627362</v>
       </c>
       <c r="E91">
-        <v>-0.07184924372913805</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06055953206306153</v>
+      </c>
+      <c r="F91">
+        <v>0.06625098977447333</v>
+      </c>
+      <c r="G91">
+        <v>-0.004313145188889691</v>
+      </c>
+      <c r="H91">
+        <v>-0.005983670794175073</v>
+      </c>
+      <c r="I91">
+        <v>-0.03597432636519959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2441531385733555</v>
+        <v>0.3412517136862189</v>
       </c>
       <c r="C92">
-        <v>-0.2587960703870025</v>
+        <v>0.1344698384501165</v>
       </c>
       <c r="D92">
-        <v>-0.07153755972290274</v>
+        <v>0.002210662984880931</v>
       </c>
       <c r="E92">
-        <v>-0.02718017327551677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06230113640454362</v>
+      </c>
+      <c r="F92">
+        <v>0.03245536242051908</v>
+      </c>
+      <c r="G92">
+        <v>-0.03652887748399548</v>
+      </c>
+      <c r="H92">
+        <v>0.01765125894284552</v>
+      </c>
+      <c r="I92">
+        <v>0.1749346365674791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2858910745209254</v>
+        <v>0.336844525600403</v>
       </c>
       <c r="C93">
-        <v>-0.2468311394757904</v>
+        <v>0.1068708884030502</v>
       </c>
       <c r="D93">
-        <v>0.009818604334964108</v>
+        <v>-0.01850679656167141</v>
       </c>
       <c r="E93">
-        <v>-0.003209428427695551</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02719534506336229</v>
+      </c>
+      <c r="F93">
+        <v>0.007550597683344577</v>
+      </c>
+      <c r="G93">
+        <v>0.006413216633986297</v>
+      </c>
+      <c r="H93">
+        <v>-0.01071789870597876</v>
+      </c>
+      <c r="I93">
+        <v>0.02397077809412706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2879190677513699</v>
+        <v>0.1197764969890313</v>
       </c>
       <c r="C94">
-        <v>0.2761759038383521</v>
+        <v>-0.3495355162102685</v>
       </c>
       <c r="D94">
-        <v>-0.309392280683778</v>
+        <v>-0.355345920382088</v>
       </c>
       <c r="E94">
-        <v>0.2505530464837745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05899665124810275</v>
+      </c>
+      <c r="F94">
+        <v>-0.1043423662024332</v>
+      </c>
+      <c r="G94">
+        <v>-0.3325446357661871</v>
+      </c>
+      <c r="H94">
+        <v>-0.01614717782636616</v>
+      </c>
+      <c r="I94">
+        <v>0.06380852548018824</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01365700428293474</v>
+        <v>0.01474557019919788</v>
       </c>
       <c r="C95">
-        <v>0.04105056295963257</v>
+        <v>-0.06420090996341339</v>
       </c>
       <c r="D95">
-        <v>-0.02848522161609724</v>
+        <v>0.0895409080522552</v>
       </c>
       <c r="E95">
-        <v>-0.04564468906804758</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.164225484267137</v>
+      </c>
+      <c r="F95">
+        <v>-0.02584382301418641</v>
+      </c>
+      <c r="G95">
+        <v>0.09421177470335353</v>
+      </c>
+      <c r="H95">
+        <v>0.3161770545183227</v>
+      </c>
+      <c r="I95">
+        <v>0.1432229009475861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001289500029659942</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008648502922260034</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006724250636354594</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003645044484195524</v>
+      </c>
+      <c r="F97">
+        <v>0.0008531252136785016</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009394594419411565</v>
+      </c>
+      <c r="H97">
+        <v>0.004655313632939378</v>
+      </c>
+      <c r="I97">
+        <v>0.005833661478505711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1473587752488688</v>
+        <v>0.1152505522298226</v>
       </c>
       <c r="C98">
-        <v>0.09224798522124388</v>
+        <v>-0.1579479586103369</v>
       </c>
       <c r="D98">
-        <v>0.191573348636749</v>
+        <v>0.06241015298971628</v>
       </c>
       <c r="E98">
-        <v>0.1524737692918291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1956424490035304</v>
+      </c>
+      <c r="F98">
+        <v>-0.2528240058149583</v>
+      </c>
+      <c r="G98">
+        <v>0.273739473217598</v>
+      </c>
+      <c r="H98">
+        <v>-0.2044013978236288</v>
+      </c>
+      <c r="I98">
+        <v>-0.04802290047103706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0007420121385048895</v>
+        <v>0.001537627008189829</v>
       </c>
       <c r="C101">
-        <v>0.0188512035352365</v>
+        <v>-0.03758613180041198</v>
       </c>
       <c r="D101">
-        <v>0.09032544528702552</v>
+        <v>0.1010332113117942</v>
       </c>
       <c r="E101">
-        <v>-0.03252561871564234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05553004868633867</v>
+      </c>
+      <c r="F101">
+        <v>0.0399855409347783</v>
+      </c>
+      <c r="G101">
+        <v>0.02320389813691366</v>
+      </c>
+      <c r="H101">
+        <v>0.1475433360964567</v>
+      </c>
+      <c r="I101">
+        <v>0.01568059412504359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1047745156192624</v>
+        <v>0.02668565909751147</v>
       </c>
       <c r="C102">
-        <v>0.1593493742087881</v>
+        <v>-0.1483236476230389</v>
       </c>
       <c r="D102">
-        <v>-0.06542709873912393</v>
+        <v>-0.1023849771891242</v>
       </c>
       <c r="E102">
-        <v>0.07162429436196829</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04033029277616979</v>
+      </c>
+      <c r="F102">
+        <v>-0.06821714257014974</v>
+      </c>
+      <c r="G102">
+        <v>0.001209139484046965</v>
+      </c>
+      <c r="H102">
+        <v>0.03810642733604216</v>
+      </c>
+      <c r="I102">
+        <v>-0.02020636213927357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
